--- a/tp1_fisica/estudio_aceleraciones_m520_mesa.xlsx
+++ b/tp1_fisica/estudio_aceleraciones_m520_mesa.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>m</t>
   </si>
@@ -112,9 +112,6 @@
     <t>6750,423.00</t>
   </si>
   <si>
-    <t>7000,348.00</t>
-  </si>
-  <si>
     <t>7250,498.00</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>2000,404.00</t>
   </si>
   <si>
-    <t>2250,348.00</t>
-  </si>
-  <si>
     <t>2500,559.00</t>
   </si>
   <si>
@@ -254,9 +248,6 @@
   </si>
   <si>
     <t>1250,857.00</t>
-  </si>
-  <si>
-    <t>1500,741.00</t>
   </si>
   <si>
     <t>1750,936.00</t>
@@ -838,19 +829,19 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+      <c r="A41" s="2">
+        <v>5.36</v>
+      </c>
+      <c r="B41" s="2">
+        <v>133.32</v>
+      </c>
       <c r="C41" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2">
-        <v>5.36</v>
-      </c>
-      <c r="B42" s="2">
-        <v>133.32</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
         <v>43</v>
       </c>
@@ -947,8 +938,12 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+      <c r="A56" s="2">
+        <v>22.29</v>
+      </c>
+      <c r="B56" s="2">
+        <v>133.1</v>
+      </c>
       <c r="C56" s="1" t="s">
         <v>57</v>
       </c>
@@ -961,12 +956,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2">
-        <v>22.29</v>
-      </c>
-      <c r="B58" s="2">
-        <v>133.1</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
         <v>59</v>
       </c>
@@ -1084,8 +1075,12 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
+      <c r="A75" s="2">
+        <v>22.15</v>
+      </c>
+      <c r="B75" s="2">
+        <v>116.39</v>
+      </c>
       <c r="C75" s="1" t="s">
         <v>76</v>
       </c>
@@ -1098,12 +1093,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2">
-        <v>22.15</v>
-      </c>
-      <c r="B77" s="2">
-        <v>116.39</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
         <v>78</v>
       </c>
@@ -1171,27 +1162,6 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
